--- a/Lamia/DBASE/create/Base2_0_5.xlsx
+++ b/Lamia/DBASE/create/Base2_0_5.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrice.verchere\PycharmProjects\Lamia\Lamia\DBASE\create\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD89CE5-CFD0-43D9-B028-87EB52B9609B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" activeTab="6"/>
+    <workbookView xWindow="1320" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="18" r:id="rId1"/>
@@ -57,7 +63,7 @@
     <sheet name="10_siartelia" sheetId="49" r:id="rId48"/>
     <sheet name="11_utilisateur" sheetId="50" r:id="rId49"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateCount="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1809,7 +1815,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1930,15 +1936,18 @@
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1987,7 +1996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2020,9 +2029,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2055,6 +2081,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2230,11 +2273,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,60 +2664,60 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="'00_Basedonnees'!A1" display="'00_Basedonnees'!A1"/>
-    <hyperlink ref="B2" location="'00_Revision'!A1" display="'00_Revision'!A1"/>
-    <hyperlink ref="B3" location="'01_Objet'!A1" display="'01_Objet'!A1"/>
-    <hyperlink ref="B4" location="'02_Descriptionsystem'!A1" display="'02_Descriptionsystem'!A1"/>
-    <hyperlink ref="B5" location="'02_Evenement'!A1" display="'02_Evenement'!A1"/>
-    <hyperlink ref="B6" location="'02_Marche'!A1" display="'02_Marche'!A1"/>
-    <hyperlink ref="B7" location="'02_Zonegeo'!A1" display="'02_Zonegeo'!A1"/>
-    <hyperlink ref="B8" location="'03_Desordre'!A1" display="'03_Desordre'!A1"/>
-    <hyperlink ref="B9" location="'03_Interventiontiers'!A1" display="'03_Interventiontiers'!A1"/>
-    <hyperlink ref="B10" location="'03_Ressource'!A1" display="'03_Ressource'!A1"/>
-    <hyperlink ref="B11" location="'04_Infralineaire'!A1" display="'04_Infralineaire'!A1"/>
-    <hyperlink ref="B12" location="'04_Environnement'!A1" display="'04_Environnement'!A1"/>
-    <hyperlink ref="B13" location="'04_Equipement'!A1" display="'04_Equipement'!A1"/>
-    <hyperlink ref="B14" location="'04_Etudestrategie'!A1" display="'04_Etudestrategie'!A1"/>
-    <hyperlink ref="B15" location="'04_Noeud'!A1" display="'04_Noeud'!A1"/>
-    <hyperlink ref="B16" location="'04_Observation'!A1" display="'04_Observation'!A1"/>
-    <hyperlink ref="B17" location="'04_Profil'!A1" display="'04_Profil'!A1"/>
-    <hyperlink ref="B18" location="'05_Graphique'!A1" display="'05_Graphique'!A1"/>
-    <hyperlink ref="B19" location="'05_Modele'!A1" display="'05_Modele'!A1"/>
-    <hyperlink ref="B20" location="'05_Photo'!A1" display="'05_Photo'!A1"/>
-    <hyperlink ref="B21" location="'05_Rapport'!A1" display="'05_Rapport'!A1"/>
-    <hyperlink ref="B22" location="'05_Rasters'!A1" display="'05_Rasters'!A1"/>
-    <hyperlink ref="B23" location="'05_Topographie'!A1" display="'05_Topographie'!A1"/>
-    <hyperlink ref="B24" location="'05_Travaux'!A1" display="'05_Travaux'!A1"/>
-    <hyperlink ref="B25" location="'06_Graphiquedata'!A1" display="'06_Graphiquedata'!A1"/>
-    <hyperlink ref="B26" location="'06_Pointtopo'!A1" display="'06_Pointtopo'!A1"/>
-    <hyperlink ref="B27" location="'06_Tcetudetravaux'!A1" display="'06_Tcetudetravaux'!A1"/>
-    <hyperlink ref="B28" location="'06_Tcobjetintervenant'!A1" display="'06_Tcobjetintervenant'!A1"/>
-    <hyperlink ref="B29" location="'06_Tcobjetressource'!A1" display="'06_Tcobjetressource'!A1"/>
-    <hyperlink ref="B30" location="'06_Tcobjetzonegeo'!A1" display="'06_Tcobjetzonegeo'!A1"/>
-    <hyperlink ref="B31" location="'06_Tctravauxdescriptionsystem'!A1" display="'06_Tctravauxdescriptionsystem'!A1"/>
-    <hyperlink ref="B32" location="'10_auth_group'!A1" display="'10_auth_group'!A1"/>
-    <hyperlink ref="B33" location="'10_auth_group_permissions'!A1" display="'10_auth_group_permissions'!A1"/>
-    <hyperlink ref="B34" location="'10_auth_permission'!A1" display="'10_auth_permission'!A1"/>
-    <hyperlink ref="B35" location="'10_auth_user'!A1" display="'10_auth_user'!A1"/>
-    <hyperlink ref="B36" location="'10_auth_user_groups'!A1" display="'10_auth_user_groups'!A1"/>
-    <hyperlink ref="B37" location="'10_auth_user_user_permissions'!A1" display="'10_auth_user_user_permissions'!A1"/>
-    <hyperlink ref="B38" location="'10_bdd'!A1" display="'10_bdd'!A1"/>
-    <hyperlink ref="B39" location="'10_carto_layer'!A1" display="'10_carto_layer'!A1"/>
-    <hyperlink ref="B40" location="'10_django_admin_log'!A1" display="'10_django_admin_log'!A1"/>
-    <hyperlink ref="B41" location="'10_django_content_type'!A1" display="'10_django_content_type'!A1"/>
-    <hyperlink ref="B42" location="'10_django_migrations'!A1" display="'10_django_migrations'!A1"/>
-    <hyperlink ref="B43" location="'10_django_session'!A1" display="'10_django_session'!A1"/>
-    <hyperlink ref="B44" location="'10_messagetiers'!A1" display="'10_messagetiers'!A1"/>
-    <hyperlink ref="B45" location="'10_projet'!A1" display="'10_projet'!A1"/>
-    <hyperlink ref="B46" location="'10_siartelia'!A1" display="'10_siartelia'!A1"/>
-    <hyperlink ref="B47" location="'11_utilisateur'!A1" display="'11_utilisateur'!A1"/>
+    <hyperlink ref="B1" location="'00_Basedonnees'!A1" display="'00_Basedonnees'!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" location="'00_Revision'!A1" display="'00_Revision'!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" location="'01_Objet'!A1" display="'01_Objet'!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B4" location="'02_Descriptionsystem'!A1" display="'02_Descriptionsystem'!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B5" location="'02_Evenement'!A1" display="'02_Evenement'!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B6" location="'02_Marche'!A1" display="'02_Marche'!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B7" location="'02_Zonegeo'!A1" display="'02_Zonegeo'!A1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B8" location="'03_Desordre'!A1" display="'03_Desordre'!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B9" location="'03_Interventiontiers'!A1" display="'03_Interventiontiers'!A1" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B10" location="'03_Ressource'!A1" display="'03_Ressource'!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B11" location="'04_Infralineaire'!A1" display="'04_Infralineaire'!A1" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B12" location="'04_Environnement'!A1" display="'04_Environnement'!A1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B13" location="'04_Equipement'!A1" display="'04_Equipement'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B14" location="'04_Etudestrategie'!A1" display="'04_Etudestrategie'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B15" location="'04_Noeud'!A1" display="'04_Noeud'!A1" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B16" location="'04_Observation'!A1" display="'04_Observation'!A1" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B17" location="'04_Profil'!A1" display="'04_Profil'!A1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B18" location="'05_Graphique'!A1" display="'05_Graphique'!A1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B19" location="'05_Modele'!A1" display="'05_Modele'!A1" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B20" location="'05_Photo'!A1" display="'05_Photo'!A1" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B21" location="'05_Rapport'!A1" display="'05_Rapport'!A1" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B22" location="'05_Rasters'!A1" display="'05_Rasters'!A1" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B23" location="'05_Topographie'!A1" display="'05_Topographie'!A1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B24" location="'05_Travaux'!A1" display="'05_Travaux'!A1" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B25" location="'06_Graphiquedata'!A1" display="'06_Graphiquedata'!A1" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B26" location="'06_Pointtopo'!A1" display="'06_Pointtopo'!A1" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B27" location="'06_Tcetudetravaux'!A1" display="'06_Tcetudetravaux'!A1" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B28" location="'06_Tcobjetintervenant'!A1" display="'06_Tcobjetintervenant'!A1" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B29" location="'06_Tcobjetressource'!A1" display="'06_Tcobjetressource'!A1" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B30" location="'06_Tcobjetzonegeo'!A1" display="'06_Tcobjetzonegeo'!A1" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B31" location="'06_Tctravauxdescriptionsystem'!A1" display="'06_Tctravauxdescriptionsystem'!A1" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B32" location="'10_auth_group'!A1" display="'10_auth_group'!A1" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B33" location="'10_auth_group_permissions'!A1" display="'10_auth_group_permissions'!A1" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B34" location="'10_auth_permission'!A1" display="'10_auth_permission'!A1" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B35" location="'10_auth_user'!A1" display="'10_auth_user'!A1" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B36" location="'10_auth_user_groups'!A1" display="'10_auth_user_groups'!A1" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B37" location="'10_auth_user_user_permissions'!A1" display="'10_auth_user_user_permissions'!A1" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B38" location="'10_bdd'!A1" display="'10_bdd'!A1" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B39" location="'10_carto_layer'!A1" display="'10_carto_layer'!A1" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B40" location="'10_django_admin_log'!A1" display="'10_django_admin_log'!A1" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B41" location="'10_django_content_type'!A1" display="'10_django_content_type'!A1" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B42" location="'10_django_migrations'!A1" display="'10_django_migrations'!A1" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B43" location="'10_django_session'!A1" display="'10_django_session'!A1" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B44" location="'10_messagetiers'!A1" display="'10_messagetiers'!A1" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B45" location="'10_projet'!A1" display="'10_projet'!A1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B46" location="'10_siartelia'!A1" display="'10_siartelia'!A1" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B47" location="'11_utilisateur'!A1" display="'11_utilisateur'!A1" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3109,7 +3152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3329,7 +3372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3501,7 +3544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3642,7 +3685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3823,7 +3866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3979,7 +4022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4128,11 +4171,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,7 +4456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4594,7 +4637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4750,7 +4793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4886,7 +4929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5035,7 +5078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5195,7 +5238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5325,7 +5368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5524,7 +5567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,7 +5691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5879,7 +5922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6085,7 +6128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6339,7 +6382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6475,7 +6518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6591,7 +6634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6784,7 +6827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7052,7 +7095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7186,7 +7229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7248,7 +7291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7318,7 +7361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7396,7 +7439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7592,7 +7635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7662,7 +7705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7732,7 +7775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7948,7 +7991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8042,7 +8085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8144,7 +8187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8254,7 +8297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8324,7 +8367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8402,7 +8445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8472,7 +8515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8618,7 +8661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8760,7 +8803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8814,7 +8857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8887,7 +8930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9308,7 +9351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9480,10 +9523,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -9663,7 +9706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9806,7 +9849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
